--- a/mediciones.xlsx
+++ b/mediciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyrio\Desktop\base_datos_tesis-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyrio\Desktop\base_datos_tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDF79B0-920D-4B4F-9D14-E50BBF0FE6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EBBBB2-2CDE-4E79-B8E3-FD6AEF348D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{57C6B504-1865-418B-9B38-EADA4D56F149}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Mysql</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>MARIA DB</t>
+  </si>
+  <si>
+    <t>NEO4J</t>
   </si>
 </sst>
 </file>
@@ -97,12 +100,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,12 +424,12 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -436,7 +440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -450,7 +454,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>4.25</v>
@@ -462,7 +466,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>4.28</v>
@@ -474,7 +478,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -488,7 +492,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>0.03</v>
@@ -500,7 +504,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>0.04</v>
@@ -512,7 +516,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -526,7 +530,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9">
         <v>0.98799999999999999</v>
@@ -538,7 +542,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10">
         <v>0.88100000000000001</v>
@@ -550,7 +554,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -564,7 +568,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>2</v>
@@ -576,7 +580,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>2</v>
@@ -588,17 +592,35 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B14">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.9169999999999998</v>
+      </c>
+      <c r="D14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="D15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
+      <c r="B16">
+        <v>2.1760000000000002</v>
+      </c>
+      <c r="D16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F16" s="3"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22" s="1"/>

--- a/mediciones.xlsx
+++ b/mediciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyrio\Desktop\base_datos_tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EBBBB2-2CDE-4E79-B8E3-FD6AEF348D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925ED23D-77A4-46C6-8B2A-CE0B1C08094B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{57C6B504-1865-418B-9B38-EADA4D56F149}"/>
+    <workbookView xWindow="4212" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{57C6B504-1865-418B-9B38-EADA4D56F149}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -103,10 +103,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,15 +421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA76CD0-B116-4834-8C4A-A904A00D3346}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -440,8 +440,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -454,8 +454,8 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
       <c r="B3">
         <v>4.25</v>
       </c>
@@ -466,8 +466,8 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
       <c r="B4">
         <v>4.28</v>
       </c>
@@ -478,8 +478,8 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -492,8 +492,8 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
       <c r="B6">
         <v>0.03</v>
       </c>
@@ -504,8 +504,8 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
       <c r="B7">
         <v>0.04</v>
       </c>
@@ -516,8 +516,8 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8">
@@ -529,9 +529,10 @@
       <c r="D8" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
       <c r="B9">
         <v>0.98799999999999999</v>
       </c>
@@ -542,8 +543,8 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
       <c r="B10">
         <v>0.88100000000000001</v>
       </c>
@@ -554,8 +555,8 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B11">
@@ -568,8 +569,8 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
       <c r="B12">
         <v>2</v>
       </c>
@@ -580,8 +581,8 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
       <c r="B13">
         <v>2</v>
       </c>
@@ -591,36 +592,47 @@
       <c r="D13">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B14">
         <v>2.9169999999999998</v>
       </c>
+      <c r="C14">
+        <v>0.251</v>
+      </c>
       <c r="D14">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
       <c r="B15">
         <v>2.2120000000000002</v>
       </c>
+      <c r="C15">
+        <v>0.24199999999999999</v>
+      </c>
       <c r="D15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
       <c r="B16">
         <v>2.1760000000000002</v>
       </c>
+      <c r="C16">
+        <v>0.20399999999999999</v>
+      </c>
       <c r="D16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22" s="1"/>

--- a/mediciones.xlsx
+++ b/mediciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyrio\Desktop\base_datos_tesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e457805af7686e47/Escritorio/tesis_dos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925ED23D-77A4-46C6-8B2A-CE0B1C08094B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{925ED23D-77A4-46C6-8B2A-CE0B1C08094B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49F4792D-7A3C-4AFD-9122-EB5720ACE24F}"/>
   <bookViews>
-    <workbookView xWindow="4212" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{57C6B504-1865-418B-9B38-EADA4D56F149}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{57C6B504-1865-418B-9B38-EADA4D56F149}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Mysql</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>NEO4J</t>
+  </si>
+  <si>
+    <t>Cassandra</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,6 +557,7 @@
       <c r="D10">
         <v>7.0999999999999994E-2</v>
       </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -634,11 +638,33 @@
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>20.952999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18">
+        <v>21.911999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19">
+        <v>20.277000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
